--- a/task.xlsx
+++ b/task.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YuanXu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YuanXu/Documents/work/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="860" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -36,19 +36,331 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间节点</t>
-    <rPh sb="0" eb="1">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级别</t>
-    <rPh sb="0" eb="1">
-      <t>you'xian'ji'bie</t>
+    <t>调研报告</t>
+    <rPh sb="0" eb="1">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模块优化建议报告</t>
+    <rPh sb="0" eb="1">
+      <t>ge'mo'kuai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策支持销售版改版原型完成</t>
+    <rPh sb="0" eb="1">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gai'ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yuan'xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一汽-大众后台系统分析</t>
+    <rPh sb="0" eb="1">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪系统消化</t>
+    <rPh sb="0" eb="1">
+      <t>ao'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻店分享</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策支持线索分类改进</t>
+    <rPh sb="0" eb="1">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <rPh sb="0" eb="1">
+      <t>chan'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <rPh sb="0" eb="1">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axture原型</t>
+    <rPh sb="6" eb="7">
+      <t>yuan'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成oa月反馈</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <rPh sb="0" eb="1">
+      <t>tian'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及关键人</t>
+    <rPh sb="0" eb="1">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'jian'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决新增客户问题</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <rPh sb="0" eb="1">
+      <t>you'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雨</t>
+    <rPh sb="0" eb="1">
+      <t>cao'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>miao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丹</t>
+    <rPh sb="0" eb="1">
+      <t>li'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先做出原型，给盖哥先看一下，然后找曹雨确认，看是否满足要求；然后再找数据牵涉的部门，看这部分的改动是否同意</t>
+    <rPh sb="0" eb="1">
+      <t>shou'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian'kan'yi'xia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ran</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>man'zu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ran'hou</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>qian'she</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>de</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>bu'men</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhe'bu'fen</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>de</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>gai'dogn</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>tong'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已完成</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前进度</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,10 +386,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -123,13 +445,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,30 +748,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42523</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="B3" s="7">
+        <v>42523</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42526</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42526</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42526</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42533</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42540</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -751,7 +751,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7">
-        <v>42523</v>
+        <v>42888</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>9</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>42523</v>
+        <v>42888</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>42526</v>
+        <v>42891</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7">
-        <v>42526</v>
+        <v>42891</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>42526</v>
+        <v>42891</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="7">
-        <v>42533</v>
+        <v>42898</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="7">
-        <v>42540</v>
+        <v>42905</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>9</v>

--- a/task.xlsx
+++ b/task.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="860" yWindow="860" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -751,7 +751,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="860" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2017-06-01" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -751,7 +751,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -798,6 +798,9 @@
       <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -809,6 +812,9 @@
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
@@ -820,6 +826,9 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -836,6 +845,9 @@
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">

--- a/task.xlsx
+++ b/task.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId1"/>
+    <sheet name="2017-06-02" sheetId="2" r:id="rId1"/>
+    <sheet name="决策支持问题列表 " sheetId="3" r:id="rId2"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -361,6 +363,365 @@
     <t>否</t>
     <rPh sb="0" eb="1">
       <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策支持pv和uv数据与硬广统计的点击数据相差比较大，造成经销商投放硬广效果不大的疑问</t>
+    <rPh sb="0" eb="1">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ying'guang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xiang'cha</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>da</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zao'cheng</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jign'xiao'hsang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>tou'fang</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ying'guang</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xiao'guo</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>bu'da</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>de</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yi'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术：李丹
+销售顾问：  房靖镒</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li'dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策支持6月1日400电话故障，需要李丹同步数据</t>
+    <rPh sb="0" eb="1">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dian'hua</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gu'zhang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>li'dan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ban'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题产生时间</t>
+    <rPh sb="0" eb="1">
+      <t>ewn'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan'sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策支持概览中图表数据6月2日不能现实6月1日的数据问题</t>
+    <rPh sb="0" eb="1">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai'lan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tu'biao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>de</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题产生原因</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan'sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术问题</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改bug，上线</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gaiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决时间</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月6日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已解决</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'jie'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件或消息给丁琳</t>
+    <rPh sb="0" eb="1">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ding'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前决策支持400接起率的数据是直接用的经销商部门的数据，不需要大数据部门再进行同步了</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'qi'lv</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu'men</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bu'xu'yao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>bu'men</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>le</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -470,6 +831,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +1124,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="12" customWidth="1"/>
+    <col min="2" max="3" width="57.5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
+        <v>42888</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -12,9 +12,11 @@
     <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-02" sheetId="2" r:id="rId1"/>
-    <sheet name="决策支持问题列表 " sheetId="3" r:id="rId2"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId3"/>
+    <sheet name="2017-06-05" sheetId="5" r:id="rId1"/>
+    <sheet name="2017-06-02" sheetId="2" r:id="rId2"/>
+    <sheet name="决策支持问题列表 " sheetId="3" r:id="rId3"/>
+    <sheet name="业务熟悉问题列表" sheetId="4" r:id="rId4"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -485,10 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题描述</t>
     <rPh sb="0" eb="1">
       <t>wen'ti</t>
@@ -722,6 +720,683 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理模块里面如何区分老客户与新客户</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ru'he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qu'fen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lao'ke'hu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin'ke'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共线索都是怎么产生的？</t>
+    <rPh sb="0" eb="1">
+      <t>gong'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zen'em</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan'sheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新车客户表面的客户姓名为什么要显示为『客户』</t>
+    <rPh sb="0" eb="1">
+      <t>xin'che</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xing'ming</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei'shen'me</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ke'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共线索中怎么会有识别不到号码归属地</t>
+    <rPh sb="0" eb="1">
+      <t>gong'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zne'me</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui'you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'bie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'dao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hao'ma</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gui'shu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">公共线索中怎么识别上牌地区 </t>
+    <rPh sb="0" eb="1">
+      <t>gong'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zne'me</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'bie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang'pai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">线索变成什么状态之后会变成『无效的线索』不再汽车之家i车商中体现了 </t>
+    <rPh sb="0" eb="1">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang'tai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'hou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian'cheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wu'xiao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bu'zai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>qi'che</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi'jia</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>che'shang</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ti'xian'le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一个线索已经被置为无效客户了， 如果这个</t>
+    <rPh sb="0" eb="1">
+      <t>ruo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>le</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhe'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一个线索已经被删除客户关系，则进行再次分配（不进行自动分配），</t>
+    <rPh sb="0" eb="1">
+      <t>ruo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guan'xi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zai'ci</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fen'pei</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu'jin'xing</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fen'pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是销售顾问导入的线索或者客户， 汽车之家会再有分配给其他经销商的可能性，若有，什么情况下会分配给其他人</t>
+    <rPh sb="0" eb="1">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu'wen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dao'ru</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huo'zhe</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qi'che</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhi'jia</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>you'fen'pei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>gei'qi'ta</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>de</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ke'neng</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ruo'you</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>fen'pei</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总览中的新增客户使用的算法是 ？</t>
+    <rPh sb="0" eb="1">
+      <t>zong'lan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>suan'fa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是通过集采联系？？</t>
+    <rPh sb="0" eb="1">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'cai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lian'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在打开决策支持模块时，出现『错误，处理您的请求时出错』</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>da'kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chu'li'nin</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qing'qiu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chu'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售顾问反馈清理一下浏览器缓存就好了</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'wen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liu'lan'qi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huan'cun</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hao'le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理浏览器缓存</t>
+    <rPh sb="0" eb="1">
+      <t>qing'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'lan'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan'cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步措施</t>
+    <rPh sb="0" eb="1">
+      <t>xia'yi'bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cuo'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待销售顾问的反馈</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu'wen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan'kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月5日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成部分的优化建议</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成ppt，还需要进行修改</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hai'su'yao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步原型已经出来了， 但是还需要进行一些修改</t>
+    <rPh sb="0" eb="1">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'ixng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu'lai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hai'xu'yao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成百分比</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai'fen'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据已经进行同步，但是依然还要发消息给丁琳，通知丁琳</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'ran</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hai'yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fa'xiao'xi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ding'lin</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ding'lin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,7 +1481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -846,6 +1521,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1138,10 +1828,11 @@
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1160,11 +1851,14 @@
       <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1177,8 +1871,14 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1191,8 +1891,14 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G3" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1205,8 +1911,14 @@
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.15">
+      <c r="G4" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1225,38 +1937,47 @@
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +2010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -1303,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -1317,20 +2038,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E14" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="B12" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
+      <c r="G12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1341,10 +2066,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42893</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1355,41 +2332,70 @@
     <col min="5" max="5" width="21" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>42888</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>42891</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +2404,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="47.83203125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>

--- a/task.xlsx
+++ b/task.xlsx
@@ -15,8 +15,7 @@
     <sheet name="2017-06-05" sheetId="5" r:id="rId1"/>
     <sheet name="2017-06-02" sheetId="2" r:id="rId2"/>
     <sheet name="决策支持问题列表 " sheetId="3" r:id="rId3"/>
-    <sheet name="业务熟悉问题列表" sheetId="4" r:id="rId4"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId5"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -724,425 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户管理模块里面如何区分老客户与新客户</t>
-    <rPh sb="0" eb="1">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mo'kuai</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>li'mian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ru'he</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>qu'fen</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>lao'ke'hu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xin'ke'hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共线索都是怎么产生的？</t>
-    <rPh sb="0" eb="1">
-      <t>gong'gong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dou'shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zen'em</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chan'sheng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新车客户表面的客户姓名为什么要显示为『客户』</t>
-    <rPh sb="0" eb="1">
-      <t>xin'che</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>mian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xing'ming</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wei'shen'me</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>xian'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ke'hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共线索中怎么会有识别不到号码归属地</t>
-    <rPh sb="0" eb="1">
-      <t>gong'gong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zne'me</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hui'you</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi'bie</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bu'dao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hao'ma</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>gui'shu'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">公共线索中怎么识别上牌地区 </t>
-    <rPh sb="0" eb="1">
-      <t>gong'gong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zne'me</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi'bie</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shang'pai</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>di'qu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">线索变成什么状态之后会变成『无效的线索』不再汽车之家i车商中体现了 </t>
-    <rPh sb="0" eb="1">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bian'cheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shen'me</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhuang'tai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhi'hou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bian'cheng</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>wu'xiao</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>bu'zai</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>qi'che</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zhi'jia</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>che'shang</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ti'xian'le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若一个线索已经被置为无效客户了， 如果这个</t>
-    <rPh sb="0" eb="1">
-      <t>ruo</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>le</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ru'guo</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zhe'ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若一个线索已经被删除客户关系，则进行再次分配（不进行自动分配），</t>
-    <rPh sb="0" eb="1">
-      <t>ruo</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shan'chu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>guan'xi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ze</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>zai'ci</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fen'pei</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>bu'jin'xing</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>zi'dong</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>fen'pei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是销售顾问导入的线索或者客户， 汽车之家会再有分配给其他经销商的可能性，若有，什么情况下会分配给其他人</t>
-    <rPh sb="0" eb="1">
-      <t>ru'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiao'shou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gu'wen</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dao'ru</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>huo'zhe</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>qi'che</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zhi'jia</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>you'fen'pei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>gei'qi'ta</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>jing'xiao'hsang</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>de</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ke'neng</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ruo'you</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>shen'me</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>qing'kuang</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>fen'pei</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总览中的新增客户使用的算法是 ？</t>
-    <rPh sb="0" eb="1">
-      <t>zong'lan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xin'zeng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi'yong</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>suan'fa</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是通过集采联系？？</t>
-    <rPh sb="0" eb="1">
-      <t>shen'me</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tong'guo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji'cai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>lian'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在打开决策支持模块时，出现『错误，处理您的请求时出错』</t>
     <rPh sb="0" eb="1">
       <t>zai</t>
@@ -1397,6 +977,74 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>ding'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上计划</t>
+    <rPh sb="0" eb="1">
+      <t>wan'shagn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成调研报告</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成原型</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'ixng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成各模块优化报告</t>
+    <rPh sb="0" eb="1">
+      <t>wan'chegn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'mo'kuai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成线索类型分类优化</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'hua</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1405,7 +1053,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1438,6 +1086,30 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1478,8 +1150,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1522,9 +1196,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1537,9 +1208,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1814,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1828,8 +1504,8 @@
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
@@ -1851,10 +1527,10 @@
       <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1871,11 +1547,11 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.8</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>57</v>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1891,11 +1567,11 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.9</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>58</v>
+      <c r="H3" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -1911,11 +1587,11 @@
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>0.8</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>59</v>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
@@ -1937,7 +1613,7 @@
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1955,7 +1631,7 @@
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1973,7 +1649,7 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2051,11 +1727,41 @@
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>0.5</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>61</v>
+      <c r="H12" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2080,8 +1786,8 @@
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
@@ -2103,10 +1809,10 @@
       <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2123,11 +1829,11 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.8</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>57</v>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2143,11 +1849,11 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.9</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>58</v>
+      <c r="H3" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -2163,11 +1869,11 @@
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>0.8</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>59</v>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
@@ -2189,7 +1895,7 @@
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +1913,7 @@
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2225,7 +1931,7 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2303,11 +2009,11 @@
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>0.5</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>61</v>
+      <c r="H12" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2027,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2352,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2375,7 +2081,7 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2383,19 +2089,19 @@
         <v>42891</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2405,80 +2111,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="47.83203125" style="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>

--- a/task.xlsx
+++ b/task.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-05" sheetId="5" r:id="rId1"/>
-    <sheet name="2017-06-02" sheetId="2" r:id="rId2"/>
-    <sheet name="决策支持问题列表 " sheetId="3" r:id="rId3"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId4"/>
+    <sheet name="2017-06-06" sheetId="6" r:id="rId1"/>
+    <sheet name="2017-06-05" sheetId="5" r:id="rId2"/>
+    <sheet name="2017-06-02" sheetId="2" r:id="rId3"/>
+    <sheet name="决策支持问题列表 " sheetId="3" r:id="rId4"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="65">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -1045,6 +1046,270 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经和曹雨（需求方）和何亮进行了沟通，</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>le</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gou'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据销售顾问房靖镒的反馈， 数据已经区域正常， 等待销售顾问后续的跟进反馈。</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'shou'gu'wen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qu'yu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xiao'shou'gu'wen</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>hou'xu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>fan'kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成调研报告ppt</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步原型已经出来了， 向盖哥当面汇报一下，描述当前决策支持销售版的几个功能。</t>
+    <rPh sb="0" eb="1">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'ixng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu'lai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dang'mian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui'bao'yi'xia</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xiao'shou'ban</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ji'ge</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gong'enng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丹、丁琳、何亮</t>
+    <rPh sb="0" eb="1">
+      <t>li'dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ding'lin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雨、何亮</t>
+    <rPh sb="0" eb="1">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉i车商的商擎、车商汇、客户管理、app、基础设置等模块， 并且吃出自己的看法以及建议</t>
+    <rPh sb="0" eb="1">
+      <t>shu'xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>che'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang'qing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>che'shang'hui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ke'hu'guan'li</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chi'chu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>de</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>kan'fa</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>jian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成决策支持销售版本的原型修改</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'ce'zhi'chi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban'ben</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan'xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成驻店分享ppt</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xiang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1490,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1534,7 +1799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1544,11 +1809,14 @@
       <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>46</v>
@@ -1568,13 +1836,13 @@
         <v>23</v>
       </c>
       <c r="G3" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1588,10 +1856,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
@@ -1608,13 +1876,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="16">
         <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1668,6 +1939,12 @@
       <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="G8" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
@@ -1727,8 +2004,14 @@
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="G12" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>50</v>
@@ -1739,30 +2022,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="A20" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1771,6 +2042,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42893</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -2022,7 +2575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2110,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1757,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-06" sheetId="6" r:id="rId1"/>
-    <sheet name="2017-06-05" sheetId="5" r:id="rId2"/>
-    <sheet name="2017-06-02" sheetId="2" r:id="rId3"/>
-    <sheet name="决策支持问题列表 " sheetId="3" r:id="rId4"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId5"/>
+    <sheet name="2017-06-07" sheetId="7" r:id="rId1"/>
+    <sheet name="2017-06-06" sheetId="6" r:id="rId2"/>
+    <sheet name="2017-06-05" sheetId="5" r:id="rId3"/>
+    <sheet name="2017-06-02" sheetId="2" r:id="rId4"/>
+    <sheet name="决策支持问题列表 " sheetId="3" r:id="rId5"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="68">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -1310,6 +1314,147 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>fen'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经和曹雨（需求方）和何亮进行了沟通，并且当前情况已经和曹雨进行了说明，还得向盖哥进行说明。</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>le</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>he</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>le</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hai'dei</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完整驻店分享ppt，还需要发送给盖哥看一下</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hai'xu'yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kan'yi'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待盖哥确认一下，第三条的优化项目是什么项目</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di'san'tiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiang'mu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1755,9 +1900,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42893</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="D16" s="2"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="D17" s="2"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="D18" s="2"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="D19" s="2"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2041,7 +2461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -2323,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -2575,7 +2995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2663,7 +3083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="14180" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2017-06-07" sheetId="7" r:id="rId1"/>
     <sheet name="2017-06-06" sheetId="6" r:id="rId2"/>
     <sheet name="2017-06-05" sheetId="5" r:id="rId3"/>
     <sheet name="2017-06-02" sheetId="2" r:id="rId4"/>
-    <sheet name="决策支持问题列表 " sheetId="3" r:id="rId5"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId6"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId5"/>
+    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="55">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -491,970 +491,843 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题描述</t>
-    <rPh sb="0" eb="1">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>miao'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决办法</t>
-    <rPh sb="0" eb="1">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ban'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题产生时间</t>
-    <rPh sb="0" eb="1">
-      <t>ewn'ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chan'sheng</t>
+    <t>发送邮件或消息给丁琳</t>
+    <rPh sb="0" eb="1">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'jian</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策支持概览中图表数据6月2日不能现实6月1日的数据问题</t>
-    <rPh sb="0" eb="1">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ding'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前决策支持400接起率的数据是直接用的经销商部门的数据，不需要大数据部门再进行同步了</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>jue'ce</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="4" eb="5">
       <t>zhi'chi</t>
     </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'qi'lv</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu'men</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bu'xu'yao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>bu'men</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成部分的优化建议</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成ppt，还需要进行修改</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hai'su'yao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步原型已经出来了， 但是还需要进行一些修改</t>
+    <rPh sb="0" eb="1">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'ixng</t>
+    </rPh>
     <rPh sb="4" eb="5">
-      <t>gai'lan</t>
+      <t>yi'jing</t>
     </rPh>
     <rPh sb="6" eb="7">
+      <t>chu'lai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hai'xu'yao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成百分比</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai'fen'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据已经进行同步，但是依然还要发消息给丁琳，通知丁琳</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'ran</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hai'yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fa'xiao'xi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ding'lin</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ding'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上计划</t>
+    <rPh sb="0" eb="1">
+      <t>wan'shagn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成调研报告</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成原型</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'ixng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成各模块优化报告</t>
+    <rPh sb="0" eb="1">
+      <t>wan'chegn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'mo'kuai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成线索类型分类优化</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经和曹雨（需求方）和何亮进行了沟通，</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>le</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gou'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据销售顾问房靖镒的反馈， 数据已经区域正常， 等待销售顾问后续的跟进反馈。</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'shou'gu'wen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qu'yu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xiao'shou'gu'wen</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>hou'xu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>fan'kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成调研报告ppt</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步原型已经出来了， 向盖哥当面汇报一下，描述当前决策支持销售版的几个功能。</t>
+    <rPh sb="0" eb="1">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'ixng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu'lai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dang'mian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui'bao'yi'xia</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xiao'shou'ban</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ji'ge</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gong'enng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丹、丁琳、何亮</t>
+    <rPh sb="0" eb="1">
+      <t>li'dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ding'lin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雨、何亮</t>
+    <rPh sb="0" eb="1">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉i车商的商擎、车商汇、客户管理、app、基础设置等模块， 并且吃出自己的看法以及建议</t>
+    <rPh sb="0" eb="1">
+      <t>shu'xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>che'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang'qing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>che'shang'hui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ke'hu'guan'li</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chi'chu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>de</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>kan'fa</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>jian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成决策支持销售版本的原型修改</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'ce'zhi'chi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban'ben</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan'xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成驻店分享ppt</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经和曹雨（需求方）和何亮进行了沟通，并且当前情况已经和曹雨进行了说明，还得向盖哥进行说明。</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>le</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>he</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>le</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hai'dei</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完整驻店分享ppt，还需要发送给盖哥看一下</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hai'xu'yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kan'yi'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待盖哥确认一下，第三条的优化项目是什么项目</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di'san'tiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将下载列表中的文件进行归类，不需要的文件进行删除</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xia'zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>zhong</t>
     </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
     <rPh sb="7" eb="8">
-      <t>tu'biao</t>
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gui'lei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'xu'yao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shan'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对完成的工作任务有形产出，应该将从buffer文件目录中移动到相应的任务目录中</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'wu</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>biao</t>
+      <t>you'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chan'chu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ying'gai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xiang'ying</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>de</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>mu'lu'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天下班的时候检查当天的任务，并且规划好第二天的任务</t>
+    <rPh sb="0" eb="1">
+      <t>mei'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'ban</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian'cha</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>shu'ju</t>
+      <t>dang'tian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ri</t>
+      <t>ren'wu</t>
     </rPh>
     <rPh sb="15" eb="16">
-      <t>bu'neng</t>
+      <t>bing'qie</t>
     </rPh>
     <rPh sb="17" eb="18">
-      <t>xian'shi</t>
+      <t>gui'hua'hao</t>
     </rPh>
     <rPh sb="20" eb="21">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ri</t>
+      <t>di'er'tian</t>
     </rPh>
     <rPh sb="23" eb="24">
       <t>de</t>
     </rPh>
     <rPh sb="24" eb="25">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题产生原因</t>
-    <rPh sb="0" eb="1">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chan'sheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yuan'yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术问题</t>
-    <rPh sb="0" eb="1">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改bug，上线</t>
-    <rPh sb="0" eb="1">
-      <t>xiu'gaiu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决时间</t>
-    <rPh sb="0" eb="1">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月6日</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已解决</t>
-    <rPh sb="0" eb="1">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'jie'jue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件或消息给丁琳</t>
-    <rPh sb="0" eb="1">
-      <t>fa'song</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ding'lin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前决策支持400接起率的数据是直接用的经销商部门的数据，不需要大数据部门再进行同步了</t>
-    <rPh sb="0" eb="1">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jue'ce</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'qi'lv</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zhi'jie</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>de</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>jing'xiao'hsang</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>bu'men</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>de</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>bu'xu'yao</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>da'shu'ju</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>bu'men</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>tong'bu</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在打开决策支持模块时，出现『错误，处理您的请求时出错』</t>
-    <rPh sb="0" eb="1">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>da'kai</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jue'ce</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>mo'kuai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chu'xian</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>cuo'wu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>chu'li'nin</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>de</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>qing'qiu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>chu'cuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售顾问反馈清理一下浏览器缓存就好了</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'shou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gu'wen</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fan'kui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qing'li</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yi'xia</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>liu'lan'qi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>huan'cun</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>hao'le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清理浏览器缓存</t>
-    <rPh sb="0" eb="1">
-      <t>qing'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liu'lan'qi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>huan'cun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步措施</t>
-    <rPh sb="0" eb="1">
-      <t>xia'yi'bu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cuo'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待销售顾问的反馈</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao'shou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gu'wen</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fan'kui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月5日</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成部分的优化建议</t>
-    <rPh sb="0" eb="1">
-      <t>yi'wan'cheng</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>you'hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jian'yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经完成ppt，还需要进行修改</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hai'su'yao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xiu'gai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步原型已经出来了， 但是还需要进行一些修改</t>
-    <rPh sb="0" eb="1">
-      <t>chu'bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yuan'ixng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chu'lai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>le</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dan'shi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hai'xu'yao</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yi'xie</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>xiu'gai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成百分比</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bai'fen'bi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据已经进行同步，但是依然还要发消息给丁琳，通知丁琳</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>tong'bu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dan'shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi'ran</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hai'yao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>fa'xiao'xi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ding'lin</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>tong'zhi</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ding'lin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上计划</t>
-    <rPh sb="0" eb="1">
-      <t>wan'shagn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成调研报告</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>diao'yan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao'gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成原型</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yuan'ixng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成各模块优化报告</t>
-    <rPh sb="0" eb="1">
-      <t>wan'chegn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ge'mo'kuai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>you'hua</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bao'gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成线索类型分类优化</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lei'xing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fen'lei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经和曹雨（需求方）和何亮进行了沟通，</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cao'yu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xu'qiu'fang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>he</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>he'liang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>le</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>gou'tong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据销售顾问房靖镒的反馈， 数据已经区域正常， 等待销售顾问后续的跟进反馈。</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao'shou'gu'wen</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fan'kui</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>qu'yu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zheng'chang</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>xiao'shou'gu'wen</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>hou'xu</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>de</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>fan'kui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经完成调研报告ppt</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>diao'yan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bao'gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步原型已经出来了， 向盖哥当面汇报一下，描述当前决策支持销售版的几个功能。</t>
-    <rPh sb="0" eb="1">
-      <t>chu'bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yuan'ixng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chu'lai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>le</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>gai'ge</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>dang'mian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>hui'bao'yi'xia</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>miao's</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>jue'ce</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>xiao'shou'ban</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>de</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ji'ge</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>gong'enng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李丹、丁琳、何亮</t>
-    <rPh sb="0" eb="1">
-      <t>li'dan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ding'lin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>he'liang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹雨、何亮</t>
-    <rPh sb="0" eb="1">
-      <t>cao'yu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>he'liang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉i车商的商擎、车商汇、客户管理、app、基础设置等模块， 并且吃出自己的看法以及建议</t>
-    <rPh sb="0" eb="1">
-      <t>shu'xi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>che'shang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shang'qing</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>che'shang'hui</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ke'hu'guan'li</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ji'chu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>she'zhi</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>mo'kuai</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bing'qie</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>chi'chu</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>zi'ji</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>de</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>kan'fa</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>yi'ji</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>jian'yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成决策支持销售版本的原型修改</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jue'ce'zhi'chi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiao'shou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ban'ben</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yuan'xing</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xiu'gai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成驻店分享ppt</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'dian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fen'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经和曹雨（需求方）和何亮进行了沟通，并且当前情况已经和曹雨进行了说明，还得向盖哥进行说明。</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cao'yu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xu'qiu'fang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>he</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>he'liang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>le</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>bing'qie</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>qing'kuang</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>he</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>cao'yu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>le</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>shuo'ming</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>hai'dei</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>gai'ge</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>shuo'ming</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经完整驻店分享ppt，还需要发送给盖哥看一下</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wan'zheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhu'dian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hai'xu'yao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>fa'song</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>gai'ge</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>kan'yi'xia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待盖哥确认一下，第三条的优化项目是什么项目</t>
-    <rPh sb="0" eb="1">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gai'ge</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yi'xia</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>di'san'tiao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>you'hua</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xiang'mu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>shen'me</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xiang'mu</t>
+      <t>ren'wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1565,7 +1438,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1600,12 +1473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1620,6 +1487,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1902,9 +1772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1915,8 +1785,8 @@
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
@@ -1938,10 +1808,10 @@
       <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1956,16 +1826,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>1</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>46</v>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1981,11 +1851,11 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>58</v>
+      <c r="H3" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
@@ -2001,11 +1871,11 @@
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>0.9</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>59</v>
+      <c r="H4" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
@@ -2022,16 +1892,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>0.9</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>65</v>
+      <c r="H5" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -2048,11 +1918,11 @@
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>0</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>67</v>
+      <c r="H6" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -2067,13 +1937,13 @@
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="16">
+        <v>29</v>
+      </c>
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>66</v>
+      <c r="H7" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -2136,36 +2006,36 @@
       <c r="F12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>0.8</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>57</v>
+      <c r="H12" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="D16" s="2"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="D17" s="2"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="D18" s="2"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
       <c r="D19" s="2"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2189,8 +2059,8 @@
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
@@ -2212,10 +2082,10 @@
       <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2230,16 +2100,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>1</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>46</v>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2255,11 +2125,11 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>58</v>
+      <c r="H3" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
@@ -2275,11 +2145,11 @@
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>0.9</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>59</v>
+      <c r="H4" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
@@ -2296,16 +2166,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>56</v>
+      <c r="H5" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -2322,7 +2192,7 @@
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2340,7 +2210,7 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2359,11 +2229,11 @@
       <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>0.8</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>57</v>
+      <c r="H8" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -2419,41 +2289,41 @@
         <v>42892</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="16">
+        <v>29</v>
+      </c>
+      <c r="G12" s="14">
         <v>1</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>50</v>
+      <c r="H12" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
+      <c r="A20" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2477,8 +2347,8 @@
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
@@ -2500,10 +2370,10 @@
       <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2520,11 +2390,11 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>0.8</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>46</v>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2540,11 +2410,11 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>0.9</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>47</v>
+      <c r="H3" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -2560,11 +2430,11 @@
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>0.8</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>48</v>
+      <c r="H4" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
@@ -2586,7 +2456,7 @@
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2604,7 +2474,7 @@
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2622,7 +2492,7 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2695,36 +2565,36 @@
         <v>42892</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="16">
+        <v>28</v>
+      </c>
+      <c r="G12" s="14">
         <v>0.5</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>50</v>
+      <c r="H12" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
-        <v>54</v>
+      <c r="A20" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
@@ -2734,7 +2604,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2759,8 +2629,8 @@
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
@@ -2782,10 +2652,10 @@
       <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2802,11 +2672,11 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>0.8</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>46</v>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2822,11 +2692,11 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>0.9</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>47</v>
+      <c r="H3" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -2842,11 +2712,11 @@
       <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>0.8</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>48</v>
+      <c r="H4" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
@@ -2868,7 +2738,7 @@
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2886,7 +2756,7 @@
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +2774,7 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2977,16 +2847,16 @@
         <v>42892</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="16">
+        <v>28</v>
+      </c>
+      <c r="G12" s="14">
         <v>0.5</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>50</v>
+      <c r="H12" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2996,94 +2866,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="57.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
-        <v>42888</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>42891</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3281,4 +3063,38 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="52.1640625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/task.xlsx
+++ b/task.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="14180" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-07" sheetId="7" r:id="rId1"/>
-    <sheet name="2017-06-06" sheetId="6" r:id="rId2"/>
-    <sheet name="2017-06-05" sheetId="5" r:id="rId3"/>
-    <sheet name="2017-06-02" sheetId="2" r:id="rId4"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId5"/>
-    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId6"/>
+    <sheet name="2017-06-08" sheetId="9" r:id="rId1"/>
+    <sheet name="history" sheetId="10" r:id="rId2"/>
+    <sheet name="2017-06-07" sheetId="7" r:id="rId3"/>
+    <sheet name="2017-06-06" sheetId="6" r:id="rId4"/>
+    <sheet name="2017-06-05" sheetId="5" r:id="rId5"/>
+    <sheet name="2017-06-02" sheetId="2" r:id="rId6"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId7"/>
+    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="62">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -1328,6 +1330,260 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成部分的优化建议，目前这阶段的内容已经完成， 需要在后续的工作中再理解各模块更深层次的逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhe'jie'duan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>hou'xu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>gong'zuo'zhong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>li'jie</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ge'mo'kuai</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>geng'shen'cheng'ci</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ceng'ci</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>de</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务关闭时间</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续跟进</t>
+    <rPh sb="0" eb="1">
+      <t>hou'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gen'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完整驻店分享ppt</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续处理建议</t>
+    <rPh sb="0" eb="1">
+      <t>hou'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经和曹雨（需求方）和何亮进行了沟通，并且当前情况已经和曹雨进行了说明，还得向盖哥进行说明。
+2017-06-07：已向盖哥进行汇报，需要向高芳获取当前通过硬广专题获得的线索量数据</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>le</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>he</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>le</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hai'dei</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>hui'bao</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>gao'fang</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ton'guo</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ying'guang'zhuan'ti</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>de</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>xian'suo'liang</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>shu'ju</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1433,8 +1689,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1492,10 +1750,12 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1770,6 +2030,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="119" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42893</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42529</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42894</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
@@ -2043,7 +2672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -2331,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -2613,7 +3242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -2865,7 +3494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3065,11 +3694,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/task.xlsx
+++ b/task.xlsx
@@ -2,24 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YuanXu/Documents/work/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-08" sheetId="9" r:id="rId1"/>
-    <sheet name="history" sheetId="10" r:id="rId2"/>
-    <sheet name="2017-06-07" sheetId="7" r:id="rId3"/>
-    <sheet name="2017-06-06" sheetId="6" r:id="rId4"/>
-    <sheet name="2017-06-05" sheetId="5" r:id="rId5"/>
-    <sheet name="2017-06-02" sheetId="2" r:id="rId6"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId7"/>
-    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId8"/>
+    <sheet name="2017-06-13" sheetId="12" r:id="rId1"/>
+    <sheet name="2017-06-09" sheetId="11" r:id="rId2"/>
+    <sheet name="2017-06-08" sheetId="9" r:id="rId3"/>
+    <sheet name="history" sheetId="10" r:id="rId4"/>
+    <sheet name="2017-06-07" sheetId="7" r:id="rId5"/>
+    <sheet name="2017-06-06" sheetId="6" r:id="rId6"/>
+    <sheet name="2017-06-05" sheetId="5" r:id="rId7"/>
+    <sheet name="2017-06-02" sheetId="2" r:id="rId8"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId9"/>
+    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="68">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -1584,6 +1586,292 @@
     </rPh>
     <rPh sb="88" eb="89">
       <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系经销商的销售经理，确定现在销售经理的考核目标和现在还用的一些报表</t>
+    <rPh sb="0" eb="1">
+      <t>lian'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xian'zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jing'li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kao'he</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>he</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xian'zai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>hsi'yong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>bao'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点评产品需要转型为数据产品</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan'xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chan'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提前对点评的产品进行了解</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian'ping</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>liao'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对经销商进行第二次调研</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'er'ci</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>diao'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个文档：包含经销商销售经理根本需求的调研报告
+经销商销售部业务讲解文档</t>
+    <rPh sb="0" eb="1">
+      <t>liang'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jing'li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gen'ben</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>diao'yan'bao'gao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jing'xiao'shang</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xiao'shou'bu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>jinag'jie</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在进行该任务时，需要使用30个沟通技巧，在对每个经销商进行调研的时候，至少使用其中的一种，(30中沟通技巧必须在每次调研时的得到体现一次）</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gai'ren'wu'zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'qiao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jing'xiao'shang</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhi'shao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>qi'zhong</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>de</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yi'zhong</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ji'qiao</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>bi'xu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>mei'ci</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>de'da'so</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>de'dao</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ti'xian</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>yi'ci</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2030,11 +2318,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42928</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="E18" s="2"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表10" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="52.1640625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -2100,30 +2670,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="B4" s="7">
         <v>42891</v>
@@ -2132,12 +2691,6 @@
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
@@ -2145,59 +2698,62 @@
         <v>0.9</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7">
-        <v>42892</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>42901</v>
+        <v>42891</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>42898</v>
+        <v>42901</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>23</v>
@@ -2205,10 +2761,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>42905</v>
+        <v>42898</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
@@ -2219,16 +2775,25 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42905</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="E13" s="2"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
@@ -2242,11 +2807,17 @@
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
       <c r="E16" s="2"/>
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2254,12 +2825,240 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2307,87 +3106,111 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="119" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42892</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="11" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="14">
         <v>0.8</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="7">
         <v>42893</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="7">
         <v>42529</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>42888</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42894</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H4" s="14">
         <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42894</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2397,8 +3220,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
@@ -2672,8 +3496,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
@@ -2960,8 +3785,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="92" workbookViewId="0">
@@ -3242,8 +4068,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="92" workbookViewId="0">
@@ -3494,8 +4321,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
@@ -3692,38 +4520,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="52.1640625" style="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/task.xlsx
+++ b/task.xlsx
@@ -12,16 +12,17 @@
     <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-13" sheetId="12" r:id="rId1"/>
-    <sheet name="2017-06-09" sheetId="11" r:id="rId2"/>
-    <sheet name="2017-06-08" sheetId="9" r:id="rId3"/>
-    <sheet name="history" sheetId="10" r:id="rId4"/>
-    <sheet name="2017-06-07" sheetId="7" r:id="rId5"/>
-    <sheet name="2017-06-06" sheetId="6" r:id="rId6"/>
-    <sheet name="2017-06-05" sheetId="5" r:id="rId7"/>
-    <sheet name="2017-06-02" sheetId="2" r:id="rId8"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId9"/>
-    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId10"/>
+    <sheet name="2017-06-14" sheetId="14" r:id="rId1"/>
+    <sheet name="2017-06-13" sheetId="12" r:id="rId2"/>
+    <sheet name="2017-06-09" sheetId="11" r:id="rId3"/>
+    <sheet name="2017-06-08" sheetId="9" r:id="rId4"/>
+    <sheet name="history" sheetId="10" r:id="rId5"/>
+    <sheet name="2017-06-07" sheetId="7" r:id="rId6"/>
+    <sheet name="2017-06-06" sheetId="6" r:id="rId7"/>
+    <sheet name="2017-06-05" sheetId="5" r:id="rId8"/>
+    <sheet name="2017-06-02" sheetId="2" r:id="rId9"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId10"/>
+    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="79">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -1872,6 +1873,435 @@
     </rPh>
     <rPh sb="66" eb="67">
       <t>yi'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对客户管理模块的了解，完善客户管理模块中涉及的统计数据进入决策支持系统。</t>
+  </si>
+  <si>
+    <t>维修保养业务的了解，找出维修保养业务的核心数据统计指标。</t>
+  </si>
+  <si>
+    <t>找出客户管理模块中还未在决策支持中体现的统计数据</t>
+  </si>
+  <si>
+    <t>形成文档</t>
+  </si>
+  <si>
+    <t>找出汽车之家内部人需要要的数据，先找韩燕和康伟确认维修保养需要看什么样的数据，如果她们没有什么需要看的数据的话，看自己这里有什么建议</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'che'zhi'jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei'bu'ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>han'yan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>he</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>kang'wei</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wei'xiu'bao'yang</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shen'me'yang</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>de</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ta'm</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>shen'em</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>de</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>de'hua</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>zhe'li</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>you'shen'me</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>jian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩燕，康伟</t>
+    <rPh sb="0" eb="1">
+      <t>han'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kang'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉维修保养业务</t>
+    <rPh sb="0" eb="1">
+      <t>shu'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'xiu'bao'yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经和曹雨（需求方）和何亮进行了沟通，并且当前情况已经和曹雨进行了说明，还得向盖哥进行说明。
+2017-06-07：已向盖哥进行汇报，需要向高芳获取当前通过硬广专题获得的线索量数据
+2017-06-13：已跟盖哥形成共识，硬广专题的线索分类数据在决策支持中不展示</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>le</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>he</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cao'yu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>le</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hai'dei</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>hui'bao</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>gao'fang</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ton'guo</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ying'guang'zhuan'ti</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>de</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>xian'suo'liang</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已做好调研的计划，并进行了调研经销商的初步选定</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zuo'hao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin'ixng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xuan'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢爱玲（李秋））</t>
+    <rPh sb="0" eb="1">
+      <t>lu'ai'ling</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前找出在客户管理模块中，试乘试驾和询价线索并没有分开，然而在主app中有区分这个线索，应该要向技术问一下，是否是没有实现这个功能，还是客户管理没有做</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'cheng'shi'jia</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>he</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xun'jia</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bing'mei'you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fen'kai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ran'er</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>you</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>qu'fen</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ying'gai</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>wne'yi'xia</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1880,7 +2310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1938,6 +2368,20 @@
       <color theme="1"/>
       <name val="宋体 (正文)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1984,7 +2428,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2036,6 +2480,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2318,12 +2768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -2406,76 +2855,90 @@
       <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="I3" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42911</v>
+      </c>
       <c r="C4" s="7"/>
+      <c r="D4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="I4" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42911</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="7">
         <v>42891</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="14">
         <v>0.9</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G7" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2510,6 +2973,9 @@
       <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
@@ -2524,6 +2990,9 @@
       </c>
       <c r="G10" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -2563,6 +3032,207 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表9" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A3"/>
@@ -2598,6 +3268,225 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42928</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="E18" s="2"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I17"/>
@@ -2825,7 +3714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I16"/>
@@ -3052,13 +3941,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3106,111 +3995,139 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7">
-        <v>42892</v>
+        <v>42891</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42892</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="119" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="11" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14">
         <v>0.8</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="7">
         <v>42893</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="7">
         <v>42529</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>42888</v>
-      </c>
-      <c r="C5" s="7">
-        <v>42894</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H5" s="14">
         <v>1</v>
       </c>
       <c r="I5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42894</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3220,7 +4137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H19"/>
@@ -3496,7 +4413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H20"/>
@@ -3785,7 +4702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H22"/>
@@ -4068,7 +4985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H12"/>
@@ -4319,205 +5236,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表9" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17" style="8" customWidth="1"/>
-    <col min="3" max="3" width="32" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7">
-        <v>42888</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>42888</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7">
-        <v>42892</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7">
-        <v>42901</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7">
-        <v>42898</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7">
-        <v>42905</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/task.xlsx
+++ b/task.xlsx
@@ -12,17 +12,19 @@
     <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-06-14" sheetId="14" r:id="rId1"/>
-    <sheet name="2017-06-13" sheetId="12" r:id="rId2"/>
-    <sheet name="2017-06-09" sheetId="11" r:id="rId3"/>
-    <sheet name="2017-06-08" sheetId="9" r:id="rId4"/>
-    <sheet name="history" sheetId="10" r:id="rId5"/>
-    <sheet name="2017-06-07" sheetId="7" r:id="rId6"/>
-    <sheet name="2017-06-06" sheetId="6" r:id="rId7"/>
-    <sheet name="2017-06-05" sheetId="5" r:id="rId8"/>
-    <sheet name="2017-06-02" sheetId="2" r:id="rId9"/>
-    <sheet name="2017-06-01" sheetId="1" r:id="rId10"/>
-    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId11"/>
+    <sheet name="2017-06-16" sheetId="16" r:id="rId1"/>
+    <sheet name="2017-06-15" sheetId="15" r:id="rId2"/>
+    <sheet name="2017-06-14" sheetId="14" r:id="rId3"/>
+    <sheet name="2017-06-13" sheetId="12" r:id="rId4"/>
+    <sheet name="2017-06-09" sheetId="11" r:id="rId5"/>
+    <sheet name="2017-06-08" sheetId="9" r:id="rId6"/>
+    <sheet name="history" sheetId="10" r:id="rId7"/>
+    <sheet name="2017-06-07" sheetId="7" r:id="rId8"/>
+    <sheet name="2017-06-06" sheetId="6" r:id="rId9"/>
+    <sheet name="2017-06-05" sheetId="5" r:id="rId10"/>
+    <sheet name="2017-06-02" sheetId="2" r:id="rId11"/>
+    <sheet name="2017-06-01" sheetId="1" r:id="rId12"/>
+    <sheet name="工作日每天检查列表" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="84">
   <si>
     <t>任务名称</t>
     <rPh sb="0" eb="1">
@@ -1889,7 +1891,226 @@
     <t>形成文档</t>
   </si>
   <si>
-    <t>找出汽车之家内部人需要要的数据，先找韩燕和康伟确认维修保养需要看什么样的数据，如果她们没有什么需要看的数据的话，看自己这里有什么建议</t>
+    <t>韩燕，康伟</t>
+    <rPh sb="0" eb="1">
+      <t>han'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kang'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉维修保养业务</t>
+    <rPh sb="0" eb="1">
+      <t>shu'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'xiu'bao'yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已做好调研的计划，并进行了调研经销商的初步选定</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zuo'hao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin'ixng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xuan'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前找出在客户管理模块中，试乘试驾和询价线索并没有分开，然而在主app中有区分这个线索，应该要向技术问一下，是否是没有实现这个功能，还是客户管理没有做</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'cheng'shi'jia</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>he</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xun'jia</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bing'mei'you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fen'kai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ran'er</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>you</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>qu'fen</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ying'gai</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>wne'yi'xia</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该要找一下点评产品的负责人</t>
+    <rPh sb="0" eb="1">
+      <t>ying'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian'ping</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢爱玲（李秋）</t>
+    <rPh sb="0" eb="1">
+      <t>lu'ai'ling</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出汽车之家内部需要统计的数据，先找韩燕和康伟确认维修保养需要看什么样的数据，如果她们没有什么需要看的数据的话，自己分析一下，看什么数据是需要统计，并且有意义的</t>
     <rPh sb="0" eb="1">
       <t>zhao'chu</t>
     </rPh>
@@ -1899,11 +2120,14 @@
     <rPh sb="6" eb="7">
       <t>nei'bu'ren</t>
     </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'yao</t>
+    </rPh>
     <rPh sb="9" eb="10">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
       <t>yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tong'ji</t>
     </rPh>
     <rPh sb="12" eb="13">
       <t>de</t>
@@ -1975,333 +2199,498 @@
       <t>de'hua</t>
     </rPh>
     <rPh sb="56" eb="57">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="63" eb="64">
       <t>kan</t>
     </rPh>
+    <rPh sb="64" eb="65">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>you'yi'yi</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研不充分， 进行第二次调研工作</t>
+    <rPh sb="0" eb="1">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'chong'fen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di'er'ci</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步原型已经出来了， 向盖哥当面汇报一下，描述当前决策支持销售版的几个功能。
+2017-06-15：该任务暂停，等第二次调研结束后，再形成新的调研文档</t>
+    <rPh sb="0" eb="1">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'ixng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu'lai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gai'ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dang'mian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui'bao'yi'xia</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jue'ce</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xiao'shou'ban</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ji'ge</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gong'enng</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>gai'ren'wu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>zan'ting</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>deng</t>
+    </rPh>
     <rPh sb="57" eb="58">
-      <t>zi'ji</t>
+      <t>di'er'ci</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>xing'cheng</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>xin'de</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>wen'dnag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已做好调研的计划，并进行了调研经销商的初步选定
+2017-06-15：对新兴快马四季青店进行了调研，见到了其集团的销售总监，管理北京的长安汽车5家店</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zuo'hao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin'ixng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jing'xiao'hsang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xuan'ding</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xin'xing'kuai'ma</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>si'ji'qing</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>le</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>jian'dao</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>le</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>de</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>xiao'hsou</t>
     </rPh>
     <rPh sb="59" eb="60">
-      <t>zhe'li</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>you'shen'me</t>
+      <t>zong'jian</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>guan'li</t>
     </rPh>
     <rPh sb="64" eb="65">
-      <t>jian'yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩燕，康伟</t>
-    <rPh sb="0" eb="1">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>de</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>chang'an'qi'che</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>jia'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-06-15：和韩燕进行沟通，韩燕发给我了目前需要的一些数据，韩燕负责C端的运营数据，可鑫负责B端的运营数据，可鑫目前正在整理，整理好了之后发给我</t>
+    <rPh sb="11" eb="12">
+      <t>he</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>han'yan</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>kang'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉维修保养业务</t>
-    <rPh sb="0" eb="1">
-      <t>shu'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'xiu'bao'yang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ye'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经和曹雨（需求方）和何亮进行了沟通，并且当前情况已经和曹雨进行了说明，还得向盖哥进行说明。
-2017-06-07：已向盖哥进行汇报，需要向高芳获取当前通过硬广专题获得的线索量数据
-2017-06-13：已跟盖哥形成共识，硬广专题的线索分类数据在决策支持中不展示</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cao'yu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xu'qiu'fang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>he</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>he'liang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="14" eb="15">
       <t>jin'xing</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>le</t>
     </rPh>
     <rPh sb="16" eb="17">
       <t>gou'tong</t>
     </rPh>
     <rPh sb="19" eb="20">
-      <t>bing'qie</t>
+      <t>han'yan</t>
     </rPh>
     <rPh sb="21" eb="22">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>qing'kuang</t>
+      <t>fa'gei'wo</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>le</t>
     </rPh>
     <rPh sb="25" eb="26">
-      <t>yi'jing</t>
+      <t>mu'qian</t>
     </rPh>
     <rPh sb="27" eb="28">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>han'yan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>de</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>de</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ke'xin</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zheng'zai</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>hao'le</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>zhi'hou</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>fa'gei'wo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-06-15：和韩燕进行沟通，韩燕发给我了目前需要的一些数据，韩燕负责C端的运营数据，可鑫负责B端的运营数据，可鑫目前正在整理，整理好了之后发给我
+2017-06-16：已经和韩燕过了一遍她对于维修保养的数据需求，晚点会整理一个表头信息给我</t>
+    <rPh sb="11" eb="12">
       <t>he</t>
     </rPh>
-    <rPh sb="28" eb="29">
-      <t>cao'yu</t>
+    <rPh sb="12" eb="13">
+      <t>han'yan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>han'yan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fa'gei'wo</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>le</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
     </rPh>
     <rPh sb="30" eb="31">
-      <t>jin'xing</t>
+      <t>yi'xie</t>
     </rPh>
     <rPh sb="32" eb="33">
-      <t>le</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>shuo'ming</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>hai'dei</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>gai'ge</t>
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>han'yan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>duan</t>
     </rPh>
     <rPh sb="41" eb="42">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>shuo'ming</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>yi</t>
+      <t>de</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>de</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>shu'ju</t>
     </rPh>
     <rPh sb="59" eb="60">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>gai'ge</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>hui'bao</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>xiang</t>
+      <t>ke'xin</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zheng'zai</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>zheng'li</t>
     </rPh>
     <rPh sb="70" eb="71">
-      <t>gao'fang</t>
+      <t>hao'le</t>
     </rPh>
     <rPh sb="72" eb="73">
-      <t>huo'qu</t>
+      <t>zhi'hou</t>
     </rPh>
     <rPh sb="74" eb="75">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ton'guo</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ying'guang'zhuan'ti</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>huo'de</t>
-    </rPh>
-    <rPh sb="84" eb="85">
+      <t>fa'gei'wo</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>y'jing</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>he</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>han'yan</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>guo'le</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>yi'bian</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>dui'yu</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>wei'xiu'bao'yang</t>
+    </rPh>
+    <rPh sb="105" eb="106">
       <t>de</t>
     </rPh>
-    <rPh sb="85" eb="86">
-      <t>xian'suo'liang</t>
-    </rPh>
-    <rPh sb="88" eb="89">
+    <rPh sb="106" eb="107">
       <t>shu'ju</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已做好调研的计划，并进行了调研经销商的初步选定</t>
-    <rPh sb="0" eb="1">
-      <t>yi'zuo'hao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>diao'yan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji'hua</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jin'ixng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>le</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>diao'yan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jing'xiao'hsang</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>de</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>chu'bu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>xuan'ding</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢爱玲（李秋））</t>
-    <rPh sb="0" eb="1">
-      <t>lu'ai'ling</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>li'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前找出在客户管理模块中，试乘试驾和询价线索并没有分开，然而在主app中有区分这个线索，应该要向技术问一下，是否是没有实现这个功能，还是客户管理没有做</t>
-    <rPh sb="0" eb="1">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhao'chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mo'kuai</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shi'cheng'shi'jia</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>he</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>xun'jia</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>bing'mei'you</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>fen'kai</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ran'er</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zhu</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>you</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>qu'fen</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>zhe</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ying'gai</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>wne'yi'xia</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>mei'you</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>shi'xian</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>zhe'ge</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>gong'neng</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>hai'shi</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ke'hu</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>mei'you</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>zuo</t>
+    <rPh sb="108" eb="109">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>wan'dian</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>hui'zheng'li</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>biao'tou</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>gei'wo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2310,7 +2699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2367,6 +2756,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体 (正文)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2428,7 +2825,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2481,11 +2878,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2768,11 +3168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -2817,125 +3217,125 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7">
-        <v>42888</v>
+        <v>42928</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
+      <c r="D2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
       <c r="I2" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7">
-        <v>42928</v>
+        <v>42911</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
+      <c r="D3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7">
         <v>42911</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="H4" s="14">
+        <v>0.05</v>
+      </c>
       <c r="I4" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
-        <v>69</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>42911</v>
+        <v>42891</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>73</v>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>42891</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="14">
-        <v>0.9</v>
-      </c>
       <c r="I6" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42901</v>
+      </c>
       <c r="C7" s="7"/>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>23</v>
@@ -2943,28 +3343,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>42901</v>
+        <v>42898</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7">
-        <v>42898</v>
+        <v>42905</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
@@ -2978,28 +3378,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7">
-        <v>42905</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
@@ -3013,17 +3401,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
       <c r="E17" s="2"/>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="E18" s="2"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3032,6 +3414,542 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42893</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表8" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42893</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
+        <v>42892</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G11"/>
@@ -3232,7 +4150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A3"/>
@@ -3269,12 +4187,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -3319,56 +4236,76 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7">
-        <v>42888</v>
+        <v>42928</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
+      <c r="D2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
       <c r="I2" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7">
-        <v>42928</v>
+        <v>42911</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
+      <c r="D3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="I3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42911</v>
+      </c>
       <c r="C4" s="7"/>
+      <c r="D4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="H4" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -3385,8 +4322,8 @@
       <c r="H5" s="14">
         <v>0.9</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>43</v>
+      <c r="I5" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
@@ -3401,31 +4338,52 @@
       <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="I6" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>42901</v>
+        <v>42898</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7">
-        <v>42898</v>
+        <v>42905</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
@@ -3434,27 +4392,21 @@
       <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7">
-        <v>42905</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
@@ -3468,17 +4420,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
       <c r="E17" s="2"/>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="E18" s="2"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3487,6 +4433,472 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42928</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42911</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42911</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42888</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42928</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42891</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>42901</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42898</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42905</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="E18" s="2"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I17"/>
@@ -3714,7 +5126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I16"/>
@@ -3941,13 +5353,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3995,23 +5407,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>42891</v>
+        <v>42888</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
@@ -4019,9 +5427,11 @@
         <v>1</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2"/>
+        <v>42</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
@@ -4045,7 +5455,7 @@
       <c r="I3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="119" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
@@ -4137,7 +5547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H19"/>
@@ -4413,7 +5823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H20"/>
@@ -4700,540 +6110,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17" style="8" customWidth="1"/>
-    <col min="3" max="3" width="32" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7">
-        <v>42888</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>42888</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7">
-        <v>42892</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>42893</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7">
-        <v>42901</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7">
-        <v>42898</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7">
-        <v>42905</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="7">
-        <v>42892</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表8" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17" style="8" customWidth="1"/>
-    <col min="3" max="3" width="32" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" style="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7">
-        <v>42888</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>42888</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>42891</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7">
-        <v>42892</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>42893</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7">
-        <v>42901</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7">
-        <v>42898</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7">
-        <v>42905</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="7">
-        <v>42892</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>